--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,61 +1,168 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L E N O V O\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9B0799-6051-4AEF-8B01-6FFE90849032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Marca temporal</t>
   </si>
   <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
     <t>Nombre del museo</t>
   </si>
   <si>
-    <t>Tipo de museo</t>
-  </si>
-  <si>
-    <t>Obras</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Casa de la cultura</t>
-  </si>
-  <si>
-    <t>Privado</t>
-  </si>
-  <si>
-    <t>Monalisa</t>
-  </si>
-  <si>
-    <t>Despciron de la monalisa</t>
+    <t xml:space="preserve">Dirección del museo </t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>img.url</t>
+  </si>
+  <si>
+    <t>Región</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad </t>
+  </si>
+  <si>
+    <t>Tipo de museo (elegir dos)</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Horario de Atención</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción </t>
+  </si>
+  <si>
+    <t>Obra 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detalles de la obra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foto de la obra </t>
+  </si>
+  <si>
+    <t>Obra 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obra 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casa de la Cultura </t>
+  </si>
+  <si>
+    <t>Cristóbal Colón, Loja</t>
+  </si>
+  <si>
+    <t>(07) 257-1672</t>
+  </si>
+  <si>
+    <t>Sierra</t>
+  </si>
+  <si>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>Público, Cultural</t>
+  </si>
+  <si>
+    <t>No tiene ningún costo</t>
+  </si>
+  <si>
+    <t>De 9am a 4pm</t>
+  </si>
+  <si>
+    <t>Este museo es una joya para los amantes de la historia y la cultura. Ubicado en una casa patrimonial en el centro de Loja, te invita a sumergirte en el pasado y presente de esta hermosa ciudad.</t>
+  </si>
+  <si>
+    <t>La bocina</t>
+  </si>
+  <si>
+    <t>La bocina es un instrumento aerófono, que no se puede determinar con exactitud su origen, ya que existen crónicas de su uso en el continente europeo, desde hace miles de años. Sin embargo, en el Ecuador, la evidencia habla de su aparición con la llegada de los españoles y el ganado vacuno al país, puesto que está elaborada con los cachos de los toros. El uso que lo daban los indígenas es de llamado o convocatoria, para hacer una alerta sobre algún hecho que se estuviera dando. La funcionalidad de la bocina ha perdido la ritualidad, excepto en algunas fechas especiales como el Inti Raymi, y, por tal motivo, destacó que en la actualidad puede ser utilizado con otras fórmulas melódicas y dentro de otros contextos. Para realizar el rescate de la bocina es importante partir del conocimiento histórico. Dentro de la etnomusicología existen dos corrientes, la de conservación tradicional y la de reutilización para enriquecer la contemporaneidad.</t>
+  </si>
+  <si>
+    <t>La chicha del yamor</t>
+  </si>
+  <si>
+    <t>En el plano histórico-cultural, Yamor es la chicha, bebida sagrada elaborada con siete variedades de maíz, cuya gramínea ha sido la columna vertebral de la cadena alimenticia desde épocas pre – incásicas. Su preparación demanda un laborioso proceso de cocción y una vez obtenida la chicha, se convierte en la carta de presentación para los turistas nacionales y extranjeros que llegan hasta este hermoso rincón imbabureño. Esta bebida es ofrecida en todos los actos que se realizan durante las fiestas de septiembre. Está elaborada en base a siete diferentes tipos de maíz. Ramiro Velasco, investigador, escritor, profesor, heredero de la tradición de hacer y vender esta bebida, forma parte de la quinta generación de mestizos que no han dejado morir a la chicha del Yamor y que, al igual que su tatarabuela, sigue el mismo rito y el mismo proceso para su elaboración.</t>
+  </si>
+  <si>
+    <t>Prendimiento de Jesús</t>
+  </si>
+  <si>
+    <t>El Prendimiento de Jesús, obra de sutil manejo artístico, prueba el sincretismo imperante en el período de la Audiencia de Quito, engrandece en características plásticas la valiosa colección que se muestra en el Museo de Arte Colonial de la Casa de la Cultura Ecuatoriana “Benjamín Carrión”. Después de la Oración que representa la angustia de Jesús en el Huerto de los Olivos o de Getsemaní, en la noche del Prendimiento. Jesús teme la muerte y quisiera alejarla, pero se muestra sumiso y obediente a la voluntad de Dios, a la necesidad de su sacrificio para la remisión del hombre. El Prendimiento de Jesús es el arresto, la misma noche de su agonía, después de la Oración en el Huerto. Un grupo de soldados llegan al monte de Getsemaní junto a Judas quien se acercará a Jesús y le dará un beso para identificarlo.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Os9GtmUCvFzASlfpop9xa2Ijv3fDc81K/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tK7lqQTDWE2Uv8ZQYfpFira-LuqcDAgJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1i75KiZNSm-YTwNzRt0bqb1oB431gD4Ce/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sWdIDRlOSOnja_9K53UmoMlIFoCuiRAT/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -65,40 +172,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -288,26 +403,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="11" width="18.88"/>
+    <col min="1" max="28" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -323,25 +441,131 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>45520.47168884259</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>45527.494407453705</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{426CD821-2AD0-4B60-B4FD-05B97F186414}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>